--- a/dataanalysis/data/predictions/1400/08201447_1448.xlsx
+++ b/dataanalysis/data/predictions/1400/08201447_1448.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="208">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-20</t>
   </si>
   <si>
@@ -635,9 +638,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -995,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH111"/>
+  <dimension ref="A1:AI111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,19 +1104,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.45</v>
@@ -1134,7 +1137,7 @@
         <v>108738.84</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1175,8 +1178,23 @@
       <c r="W2">
         <v>-1.95</v>
       </c>
+      <c r="X2">
+        <v>-0.27</v>
+      </c>
+      <c r="Y2">
+        <v>12.19</v>
+      </c>
+      <c r="Z2">
+        <v>9.23</v>
+      </c>
       <c r="AC2" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1184,22 +1202,25 @@
       <c r="AG2">
         <v>3.773403644561768</v>
       </c>
-      <c r="AH2" t="s">
-        <v>207</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.97</v>
@@ -1217,7 +1238,7 @@
         <v>465812.84</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1258,8 +1279,23 @@
       <c r="W3">
         <v>-0.33</v>
       </c>
+      <c r="X3">
+        <v>-1.54</v>
+      </c>
+      <c r="Y3">
+        <v>393.18</v>
+      </c>
+      <c r="Z3">
+        <v>1.99</v>
+      </c>
       <c r="AC3" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1267,22 +1303,25 @@
       <c r="AG3">
         <v>-10.88531589508057</v>
       </c>
-      <c r="AH3" t="s">
-        <v>207</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.76</v>
@@ -1300,7 +1339,7 @@
         <v>158120.61</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1341,8 +1380,23 @@
       <c r="W4">
         <v>-1.06</v>
       </c>
+      <c r="X4">
+        <v>-3.54</v>
+      </c>
+      <c r="Y4">
+        <v>48.61</v>
+      </c>
+      <c r="Z4">
+        <v>1.8</v>
+      </c>
       <c r="AC4" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1350,22 +1404,25 @@
       <c r="AG4">
         <v>14.35340309143066</v>
       </c>
-      <c r="AH4" t="s">
-        <v>207</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.38</v>
@@ -1383,7 +1440,7 @@
         <v>349341.52</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1424,8 +1481,23 @@
       <c r="W5">
         <v>-2.69</v>
       </c>
+      <c r="X5">
+        <v>-4.63</v>
+      </c>
+      <c r="Y5">
+        <v>73.88</v>
+      </c>
+      <c r="Z5">
+        <v>3.72</v>
+      </c>
       <c r="AC5" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1433,22 +1505,25 @@
       <c r="AG5">
         <v>17.12192535400391</v>
       </c>
-      <c r="AH5" t="s">
-        <v>207</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300059</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.33</v>
@@ -1466,7 +1541,7 @@
         <v>1637812.53</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1507,8 +1582,23 @@
       <c r="W6">
         <v>-0.45</v>
       </c>
+      <c r="X6">
+        <v>-1.03</v>
+      </c>
+      <c r="Y6">
+        <v>27.45</v>
+      </c>
+      <c r="Z6">
+        <v>1.7</v>
+      </c>
       <c r="AC6" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1516,22 +1606,25 @@
       <c r="AG6">
         <v>16.62875175476074</v>
       </c>
-      <c r="AH6" t="s">
-        <v>207</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300066</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.93</v>
@@ -1549,7 +1642,7 @@
         <v>161090.92</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1590,8 +1683,23 @@
       <c r="W7">
         <v>1.44</v>
       </c>
+      <c r="X7">
+        <v>-6.52</v>
+      </c>
+      <c r="Y7">
+        <v>7.52</v>
+      </c>
+      <c r="Z7">
+        <v>0.27</v>
+      </c>
       <c r="AC7" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1599,22 +1707,25 @@
       <c r="AG7">
         <v>4.804839134216309</v>
       </c>
-      <c r="AH7" t="s">
-        <v>207</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300145</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.19</v>
@@ -1632,7 +1743,7 @@
         <v>79017.62</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1673,8 +1784,23 @@
       <c r="W8">
         <v>-0.22</v>
       </c>
+      <c r="X8">
+        <v>-1.74</v>
+      </c>
+      <c r="Y8">
+        <v>5.23</v>
+      </c>
+      <c r="Z8">
+        <v>1.36</v>
+      </c>
       <c r="AC8" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1682,22 +1808,25 @@
       <c r="AG8">
         <v>3.586008787155151</v>
       </c>
-      <c r="AH8" t="s">
-        <v>207</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300184</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.87</v>
@@ -1715,7 +1844,7 @@
         <v>141038.69</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1756,8 +1885,23 @@
       <c r="W9">
         <v>0.05</v>
       </c>
+      <c r="X9">
+        <v>2.48</v>
+      </c>
+      <c r="Y9">
+        <v>12.48</v>
+      </c>
+      <c r="Z9">
+        <v>7.03</v>
+      </c>
       <c r="AC9" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1765,22 +1909,25 @@
       <c r="AG9">
         <v>2.799829006195068</v>
       </c>
-      <c r="AH9" t="s">
-        <v>207</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300195</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.98</v>
@@ -1798,7 +1945,7 @@
         <v>37820.85</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1839,8 +1986,23 @@
       <c r="W10">
         <v>-0.64</v>
       </c>
+      <c r="X10">
+        <v>-2.86</v>
+      </c>
+      <c r="Y10">
+        <v>8.73</v>
+      </c>
+      <c r="Z10">
+        <v>-0.23</v>
+      </c>
       <c r="AC10" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1848,22 +2010,25 @@
       <c r="AG10">
         <v>3.052088499069214</v>
       </c>
-      <c r="AH10" t="s">
-        <v>207</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -1881,7 +2046,7 @@
         <v>398654.67</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1922,8 +2087,23 @@
       <c r="W11">
         <v>-1</v>
       </c>
+      <c r="X11">
+        <v>2.57</v>
+      </c>
+      <c r="Y11">
+        <v>30.7</v>
+      </c>
+      <c r="Z11">
+        <v>4.89</v>
+      </c>
       <c r="AC11" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1931,22 +2111,25 @@
       <c r="AG11">
         <v>-1.09582245349884</v>
       </c>
-      <c r="AH11" t="s">
-        <v>207</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300213</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.73</v>
@@ -1964,7 +2147,7 @@
         <v>67530.34</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -2005,8 +2188,23 @@
       <c r="W12">
         <v>0.6</v>
       </c>
+      <c r="X12">
+        <v>-3.45</v>
+      </c>
+      <c r="Y12">
+        <v>11.18</v>
+      </c>
+      <c r="Z12">
+        <v>1.54</v>
+      </c>
       <c r="AC12" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2014,22 +2212,25 @@
       <c r="AG12">
         <v>4.855395317077637</v>
       </c>
-      <c r="AH12" t="s">
-        <v>207</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300252</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-1.19</v>
@@ -2047,7 +2248,7 @@
         <v>96941.67999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -2088,8 +2289,23 @@
       <c r="W13">
         <v>-1.4</v>
       </c>
+      <c r="X13">
+        <v>-1.28</v>
+      </c>
+      <c r="Y13">
+        <v>14.27</v>
+      </c>
+      <c r="Z13">
+        <v>1.42</v>
+      </c>
       <c r="AC13" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2097,22 +2313,25 @@
       <c r="AG13">
         <v>-0.526543140411377</v>
       </c>
-      <c r="AH13" t="s">
-        <v>207</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.38</v>
@@ -2130,7 +2349,7 @@
         <v>85276.84</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2171,8 +2390,23 @@
       <c r="W14">
         <v>0.15</v>
       </c>
+      <c r="X14">
+        <v>4.03</v>
+      </c>
+      <c r="Y14">
+        <v>25.8</v>
+      </c>
+      <c r="Z14">
+        <v>9.09</v>
+      </c>
       <c r="AC14" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2180,22 +2414,25 @@
       <c r="AG14">
         <v>17.47163391113281</v>
       </c>
-      <c r="AH14" t="s">
-        <v>207</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300300</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-3.61</v>
@@ -2213,7 +2450,7 @@
         <v>34189.65</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2254,8 +2491,23 @@
       <c r="W15">
         <v>-1.41</v>
       </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>6.13</v>
+      </c>
+      <c r="Z15">
+        <v>4.25</v>
+      </c>
       <c r="AC15" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2263,22 +2515,25 @@
       <c r="AG15">
         <v>2.879956245422363</v>
       </c>
-      <c r="AH15" t="s">
-        <v>207</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300324</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.54</v>
@@ -2296,7 +2551,7 @@
         <v>130356.08</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2337,8 +2592,23 @@
       <c r="W16">
         <v>-1.4</v>
       </c>
+      <c r="X16">
+        <v>2.44</v>
+      </c>
+      <c r="Y16">
+        <v>6.03</v>
+      </c>
+      <c r="Z16">
+        <v>4.69</v>
+      </c>
       <c r="AC16" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2346,22 +2616,25 @@
       <c r="AG16">
         <v>-5.232019424438477</v>
       </c>
-      <c r="AH16" t="s">
-        <v>207</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300328</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>8.48</v>
@@ -2379,7 +2652,7 @@
         <v>347845.63</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2420,8 +2693,23 @@
       <c r="W17">
         <v>-3.43</v>
       </c>
+      <c r="X17">
+        <v>-5.64</v>
+      </c>
+      <c r="Y17">
+        <v>18.29</v>
+      </c>
+      <c r="Z17">
+        <v>-0.71</v>
+      </c>
       <c r="AC17" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2429,22 +2717,25 @@
       <c r="AG17">
         <v>-0.03999228775501251</v>
       </c>
-      <c r="AH17" t="s">
-        <v>207</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300368</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.19</v>
@@ -2462,7 +2753,7 @@
         <v>158633.95</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2503,8 +2794,23 @@
       <c r="W18">
         <v>0.55</v>
       </c>
+      <c r="X18">
+        <v>-6.01</v>
+      </c>
+      <c r="Y18">
+        <v>17.45</v>
+      </c>
+      <c r="Z18">
+        <v>3.87</v>
+      </c>
       <c r="AC18" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2512,22 +2818,25 @@
       <c r="AG18">
         <v>-11.18508529663086</v>
       </c>
-      <c r="AH18" t="s">
-        <v>207</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300398</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.72</v>
@@ -2545,7 +2854,7 @@
         <v>100765.08</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2586,8 +2895,23 @@
       <c r="W19">
         <v>-0.6</v>
       </c>
+      <c r="X19">
+        <v>-3.91</v>
+      </c>
+      <c r="Y19">
+        <v>24.08</v>
+      </c>
+      <c r="Z19">
+        <v>0.67</v>
+      </c>
       <c r="AC19" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2595,22 +2919,25 @@
       <c r="AG19">
         <v>-1.748968482017517</v>
       </c>
-      <c r="AH19" t="s">
-        <v>207</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300404</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-6.31</v>
@@ -2628,7 +2955,7 @@
         <v>94186.25</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2669,8 +2996,23 @@
       <c r="W20">
         <v>0.9</v>
       </c>
+      <c r="X20">
+        <v>-3.07</v>
+      </c>
+      <c r="Y20">
+        <v>12.57</v>
+      </c>
+      <c r="Z20">
+        <v>2.03</v>
+      </c>
       <c r="AC20" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2678,22 +3020,25 @@
       <c r="AG20">
         <v>-1.317806959152222</v>
       </c>
-      <c r="AH20" t="s">
-        <v>207</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300409</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.7</v>
@@ -2711,7 +3056,7 @@
         <v>137837.04</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2752,8 +3097,23 @@
       <c r="W21">
         <v>0.39</v>
       </c>
+      <c r="X21">
+        <v>-5.06</v>
+      </c>
+      <c r="Y21">
+        <v>22</v>
+      </c>
+      <c r="Z21">
+        <v>1.71</v>
+      </c>
       <c r="AC21" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2761,22 +3121,25 @@
       <c r="AG21">
         <v>1.930454730987549</v>
       </c>
-      <c r="AH21" t="s">
-        <v>207</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300499</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-1.36</v>
@@ -2794,7 +3157,7 @@
         <v>223492.48</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2835,8 +3198,23 @@
       <c r="W22">
         <v>-1.06</v>
       </c>
+      <c r="X22">
+        <v>-0.15</v>
+      </c>
+      <c r="Y22">
+        <v>33</v>
+      </c>
+      <c r="Z22">
+        <v>1.38</v>
+      </c>
       <c r="AC22" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2844,22 +3222,25 @@
       <c r="AG22">
         <v>0.6043106317520142</v>
       </c>
-      <c r="AH22" t="s">
-        <v>207</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300539</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-7.04</v>
@@ -2877,7 +3258,7 @@
         <v>72990.34</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2918,8 +3299,23 @@
       <c r="W23">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X23">
+        <v>-3.79</v>
+      </c>
+      <c r="Y23">
+        <v>33.92</v>
+      </c>
+      <c r="Z23">
+        <v>2.79</v>
+      </c>
       <c r="AC23" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2927,22 +3323,25 @@
       <c r="AG23">
         <v>1.998765707015991</v>
       </c>
-      <c r="AH23" t="s">
-        <v>207</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300547</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-4.41</v>
@@ -2960,7 +3359,7 @@
         <v>194384.18</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3001,8 +3400,23 @@
       <c r="W24">
         <v>-0.9</v>
       </c>
+      <c r="X24">
+        <v>-4.93</v>
+      </c>
+      <c r="Y24">
+        <v>52.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.84</v>
+      </c>
       <c r="AC24" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3010,22 +3424,25 @@
       <c r="AG24">
         <v>3.644364833831787</v>
       </c>
-      <c r="AH24" t="s">
-        <v>207</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300548</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.81</v>
@@ -3043,7 +3460,7 @@
         <v>295955.79</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25">
         <v>27</v>
@@ -3084,8 +3501,23 @@
       <c r="W25">
         <v>0.59</v>
       </c>
+      <c r="X25">
+        <v>-6.28</v>
+      </c>
+      <c r="Y25">
+        <v>110.22</v>
+      </c>
+      <c r="Z25">
+        <v>3.89</v>
+      </c>
       <c r="AC25" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3093,22 +3525,25 @@
       <c r="AG25">
         <v>-8.955708503723145</v>
       </c>
-      <c r="AH25" t="s">
-        <v>207</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300584</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-3.05</v>
@@ -3126,7 +3561,7 @@
         <v>73275.85000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -3167,8 +3602,23 @@
       <c r="W26">
         <v>-1.29</v>
       </c>
+      <c r="X26">
+        <v>-4.18</v>
+      </c>
+      <c r="Y26">
+        <v>55.48</v>
+      </c>
+      <c r="Z26">
+        <v>0.25</v>
+      </c>
       <c r="AC26" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3176,22 +3626,25 @@
       <c r="AG26">
         <v>1.415528416633606</v>
       </c>
-      <c r="AH26" t="s">
-        <v>207</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300593</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.78</v>
@@ -3209,7 +3662,7 @@
         <v>62448.56</v>
       </c>
       <c r="J27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -3250,8 +3703,23 @@
       <c r="W27">
         <v>0.78</v>
       </c>
+      <c r="X27">
+        <v>-3.9</v>
+      </c>
+      <c r="Y27">
+        <v>20.17</v>
+      </c>
+      <c r="Z27">
+        <v>1.26</v>
+      </c>
       <c r="AC27" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3259,22 +3727,25 @@
       <c r="AG27">
         <v>4.377453804016113</v>
       </c>
-      <c r="AH27" t="s">
-        <v>207</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300602</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.13</v>
@@ -3292,7 +3763,7 @@
         <v>177335.95</v>
       </c>
       <c r="J28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3333,8 +3804,23 @@
       <c r="W28">
         <v>-0.49</v>
       </c>
+      <c r="X28">
+        <v>-2.64</v>
+      </c>
+      <c r="Y28">
+        <v>36.27</v>
+      </c>
+      <c r="Z28">
+        <v>5.16</v>
+      </c>
       <c r="AC28" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3342,22 +3828,25 @@
       <c r="AG28">
         <v>31.88518524169922</v>
       </c>
-      <c r="AH28" t="s">
-        <v>207</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300609</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-8.380000000000001</v>
@@ -3375,7 +3864,7 @@
         <v>82061.03</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29">
         <v>16</v>
@@ -3416,8 +3905,23 @@
       <c r="W29">
         <v>-1.28</v>
       </c>
+      <c r="X29">
+        <v>-2.87</v>
+      </c>
+      <c r="Y29">
+        <v>55.07</v>
+      </c>
+      <c r="Z29">
+        <v>1.92</v>
+      </c>
       <c r="AC29" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3425,22 +3929,25 @@
       <c r="AG29">
         <v>3.043095111846924</v>
       </c>
-      <c r="AH29" t="s">
-        <v>207</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300620</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-6.67</v>
@@ -3458,7 +3965,7 @@
         <v>287123.17</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -3499,8 +4006,23 @@
       <c r="W30">
         <v>-1.26</v>
       </c>
+      <c r="X30">
+        <v>-6.13</v>
+      </c>
+      <c r="Y30">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="Z30">
+        <v>1.55</v>
+      </c>
       <c r="AC30" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3508,22 +4030,25 @@
       <c r="AG30">
         <v>1.306495428085327</v>
       </c>
-      <c r="AH30" t="s">
-        <v>207</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300631</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-3.34</v>
@@ -3541,7 +4066,7 @@
         <v>97128.38</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3582,8 +4107,23 @@
       <c r="W31">
         <v>-2.89</v>
       </c>
+      <c r="X31">
+        <v>-2.82</v>
+      </c>
+      <c r="Y31">
+        <v>36.3</v>
+      </c>
+      <c r="Z31">
+        <v>1.85</v>
+      </c>
       <c r="AC31" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3591,22 +4131,25 @@
       <c r="AG31">
         <v>-0.7336902618408203</v>
       </c>
-      <c r="AH31" t="s">
-        <v>207</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300637</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.25</v>
@@ -3624,7 +4167,7 @@
         <v>37319.73</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3665,8 +4208,23 @@
       <c r="W32">
         <v>-0.7</v>
       </c>
+      <c r="X32">
+        <v>2.75</v>
+      </c>
+      <c r="Y32">
+        <v>16.5</v>
+      </c>
+      <c r="Z32">
+        <v>5.23</v>
+      </c>
       <c r="AC32" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3674,22 +4232,25 @@
       <c r="AG32">
         <v>-0.2742008864879608</v>
       </c>
-      <c r="AH32" t="s">
-        <v>207</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300642</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>7.41</v>
@@ -3707,7 +4268,7 @@
         <v>82508.38</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3748,8 +4309,23 @@
       <c r="W33">
         <v>0.62</v>
       </c>
+      <c r="X33">
+        <v>-2.78</v>
+      </c>
+      <c r="Y33">
+        <v>25</v>
+      </c>
+      <c r="Z33">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="AC33" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3757,22 +4333,25 @@
       <c r="AG33">
         <v>6.088101387023926</v>
       </c>
-      <c r="AH33" t="s">
-        <v>207</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300665</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>6.72</v>
@@ -3790,7 +4369,7 @@
         <v>44316.44</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3831,8 +4410,23 @@
       <c r="W34">
         <v>0</v>
       </c>
+      <c r="X34">
+        <v>10.4</v>
+      </c>
+      <c r="Y34">
+        <v>12.85</v>
+      </c>
+      <c r="Z34">
+        <v>10.78</v>
+      </c>
       <c r="AC34" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3840,22 +4434,25 @@
       <c r="AG34">
         <v>6.89585542678833</v>
       </c>
-      <c r="AH34" t="s">
-        <v>207</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300684</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.56</v>
@@ -3873,7 +4470,7 @@
         <v>168025.89</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>16</v>
@@ -3914,8 +4511,23 @@
       <c r="W35">
         <v>0.96</v>
       </c>
+      <c r="X35">
+        <v>-7.31</v>
+      </c>
+      <c r="Y35">
+        <v>38.54</v>
+      </c>
+      <c r="Z35">
+        <v>0.05</v>
+      </c>
       <c r="AC35" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3923,22 +4535,25 @@
       <c r="AG35">
         <v>10.09628486633301</v>
       </c>
-      <c r="AH35" t="s">
-        <v>207</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300690</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.47</v>
@@ -3956,7 +4571,7 @@
         <v>72047.69</v>
       </c>
       <c r="J36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3997,8 +4612,23 @@
       <c r="W36">
         <v>-1.62</v>
       </c>
+      <c r="X36">
+        <v>-4.48</v>
+      </c>
+      <c r="Y36">
+        <v>38.76</v>
+      </c>
+      <c r="Z36">
+        <v>-0.31</v>
+      </c>
       <c r="AC36" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4006,22 +4636,25 @@
       <c r="AG36">
         <v>3.108027696609497</v>
       </c>
-      <c r="AH36" t="s">
-        <v>207</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300703</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>6.52</v>
@@ -4039,7 +4672,7 @@
         <v>84227.55</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -4080,8 +4713,23 @@
       <c r="W37">
         <v>1.93</v>
       </c>
+      <c r="X37">
+        <v>-5.67</v>
+      </c>
+      <c r="Y37">
+        <v>38.53</v>
+      </c>
+      <c r="Z37">
+        <v>2.61</v>
+      </c>
       <c r="AC37" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4089,22 +4737,25 @@
       <c r="AG37">
         <v>3.835474014282227</v>
       </c>
-      <c r="AH37" t="s">
-        <v>207</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300706</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.96</v>
@@ -4122,7 +4773,7 @@
         <v>104190.13</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K38">
         <v>19</v>
@@ -4163,8 +4814,23 @@
       <c r="W38">
         <v>-0.11</v>
       </c>
+      <c r="X38">
+        <v>-7.94</v>
+      </c>
+      <c r="Y38">
+        <v>49.01</v>
+      </c>
+      <c r="Z38">
+        <v>-0.43</v>
+      </c>
       <c r="AC38" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4172,22 +4838,25 @@
       <c r="AG38">
         <v>3.214550495147705</v>
       </c>
-      <c r="AH38" t="s">
-        <v>207</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300709</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2.5</v>
@@ -4205,7 +4874,7 @@
         <v>89017.34</v>
       </c>
       <c r="J39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4246,8 +4915,23 @@
       <c r="W39">
         <v>1.19</v>
       </c>
+      <c r="X39">
+        <v>-4.23</v>
+      </c>
+      <c r="Y39">
+        <v>52.78</v>
+      </c>
+      <c r="Z39">
+        <v>2.05</v>
+      </c>
       <c r="AC39" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4255,22 +4939,25 @@
       <c r="AG39">
         <v>2.218677043914795</v>
       </c>
-      <c r="AH39" t="s">
-        <v>207</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300724</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.36</v>
@@ -4288,7 +4975,7 @@
         <v>194167.88</v>
       </c>
       <c r="J40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4329,8 +5016,23 @@
       <c r="W40">
         <v>0</v>
       </c>
+      <c r="X40">
+        <v>-1.43</v>
+      </c>
+      <c r="Y40">
+        <v>78.97</v>
+      </c>
+      <c r="Z40">
+        <v>2.59</v>
+      </c>
       <c r="AC40" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4338,22 +5040,25 @@
       <c r="AG40">
         <v>-4.423744678497314</v>
       </c>
-      <c r="AH40" t="s">
-        <v>207</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300727</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-3.54</v>
@@ -4371,7 +5076,7 @@
         <v>60276.14</v>
       </c>
       <c r="J41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4412,8 +5117,23 @@
       <c r="W41">
         <v>0.21</v>
       </c>
+      <c r="X41">
+        <v>-3.91</v>
+      </c>
+      <c r="Y41">
+        <v>40.38</v>
+      </c>
+      <c r="Z41">
+        <v>1.41</v>
+      </c>
       <c r="AC41" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4421,22 +5141,25 @@
       <c r="AG41">
         <v>-4.991816520690918</v>
       </c>
-      <c r="AH41" t="s">
-        <v>207</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300730</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-5.57</v>
@@ -4454,7 +5177,7 @@
         <v>102001.38</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4495,8 +5218,23 @@
       <c r="W42">
         <v>-3.32</v>
       </c>
+      <c r="X42">
+        <v>13.17</v>
+      </c>
+      <c r="Y42">
+        <v>22.96</v>
+      </c>
+      <c r="Z42">
+        <v>20.84</v>
+      </c>
       <c r="AC42" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4504,22 +5242,25 @@
       <c r="AG42">
         <v>1.773829221725464</v>
       </c>
-      <c r="AH42" t="s">
-        <v>207</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300752</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.51</v>
@@ -4537,7 +5278,7 @@
         <v>87121.72</v>
       </c>
       <c r="J43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4578,8 +5319,23 @@
       <c r="W43">
         <v>2.5</v>
       </c>
+      <c r="X43">
+        <v>-1.73</v>
+      </c>
+      <c r="Y43">
+        <v>26.87</v>
+      </c>
+      <c r="Z43">
+        <v>3.31</v>
+      </c>
       <c r="AC43" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4587,22 +5343,25 @@
       <c r="AG43">
         <v>0.370306521654129</v>
       </c>
-      <c r="AH43" t="s">
-        <v>207</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300767</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.7</v>
@@ -4620,7 +5379,7 @@
         <v>84567.66</v>
       </c>
       <c r="J44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4661,8 +5420,23 @@
       <c r="W44">
         <v>-1.19</v>
       </c>
+      <c r="X44">
+        <v>-0.05</v>
+      </c>
+      <c r="Y44">
+        <v>21.6</v>
+      </c>
+      <c r="Z44">
+        <v>2.13</v>
+      </c>
       <c r="AC44" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4670,22 +5444,25 @@
       <c r="AG44">
         <v>-12.78186893463135</v>
       </c>
-      <c r="AH44" t="s">
-        <v>207</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300803</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.94</v>
@@ -4703,7 +5480,7 @@
         <v>718046.46</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4744,8 +5521,23 @@
       <c r="W45">
         <v>-1.09</v>
       </c>
+      <c r="X45">
+        <v>3.19</v>
+      </c>
+      <c r="Y45">
+        <v>132.81</v>
+      </c>
+      <c r="Z45">
+        <v>7.03</v>
+      </c>
       <c r="AC45" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4753,22 +5545,25 @@
       <c r="AG45">
         <v>11.39038467407227</v>
       </c>
-      <c r="AH45" t="s">
-        <v>207</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300806</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>13.73</v>
@@ -4786,7 +5581,7 @@
         <v>116121.31</v>
       </c>
       <c r="J46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K46">
         <v>4</v>
@@ -4827,8 +5622,23 @@
       <c r="W46">
         <v>1.1</v>
       </c>
+      <c r="X46">
+        <v>-4.17</v>
+      </c>
+      <c r="Y46">
+        <v>25.97</v>
+      </c>
+      <c r="Z46">
+        <v>-2</v>
+      </c>
       <c r="AC46" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4836,22 +5646,25 @@
       <c r="AG46">
         <v>6.985421657562256</v>
       </c>
-      <c r="AH46" t="s">
-        <v>207</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300810</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-13.32</v>
@@ -4869,7 +5682,7 @@
         <v>149944.72</v>
       </c>
       <c r="J47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4910,8 +5723,23 @@
       <c r="W47">
         <v>-1.84</v>
       </c>
+      <c r="X47">
+        <v>-5.68</v>
+      </c>
+      <c r="Y47">
+        <v>57.44</v>
+      </c>
+      <c r="Z47">
+        <v>1.22</v>
+      </c>
       <c r="AC47" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4919,22 +5747,25 @@
       <c r="AG47">
         <v>3.718889951705933</v>
       </c>
-      <c r="AH47" t="s">
-        <v>207</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300811</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-3.55</v>
@@ -4952,7 +5783,7 @@
         <v>86841.72</v>
       </c>
       <c r="J48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4993,8 +5824,23 @@
       <c r="W48">
         <v>-0.11</v>
       </c>
+      <c r="X48">
+        <v>-4.53</v>
+      </c>
+      <c r="Y48">
+        <v>73.33</v>
+      </c>
+      <c r="Z48">
+        <v>2.34</v>
+      </c>
       <c r="AC48" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5002,22 +5848,25 @@
       <c r="AG48">
         <v>-5.547184467315674</v>
       </c>
-      <c r="AH48" t="s">
-        <v>207</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300814</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-3.4</v>
@@ -5035,7 +5884,7 @@
         <v>70871.67999999999</v>
       </c>
       <c r="J49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -5076,8 +5925,23 @@
       <c r="W49">
         <v>-0.2</v>
       </c>
+      <c r="X49">
+        <v>-4.91</v>
+      </c>
+      <c r="Y49">
+        <v>47.28</v>
+      </c>
+      <c r="Z49">
+        <v>-0.32</v>
+      </c>
       <c r="AC49" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5085,22 +5949,25 @@
       <c r="AG49">
         <v>-2.676202297210693</v>
       </c>
-      <c r="AH49" t="s">
-        <v>207</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300843</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-4.89</v>
@@ -5118,7 +5985,7 @@
         <v>64833.42</v>
       </c>
       <c r="J50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -5159,8 +6026,23 @@
       <c r="W50">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X50">
+        <v>4.52</v>
+      </c>
+      <c r="Y50">
+        <v>50.66</v>
+      </c>
+      <c r="Z50">
+        <v>8.039999999999999</v>
+      </c>
       <c r="AC50" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5168,22 +6050,25 @@
       <c r="AG50">
         <v>3.172612428665161</v>
       </c>
-      <c r="AH50" t="s">
-        <v>207</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300870</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-4.29</v>
@@ -5201,7 +6086,7 @@
         <v>162958.37</v>
       </c>
       <c r="J51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K51">
         <v>6</v>
@@ -5242,8 +6127,23 @@
       <c r="W51">
         <v>0</v>
       </c>
+      <c r="X51">
+        <v>2</v>
+      </c>
+      <c r="Y51">
+        <v>257.75</v>
+      </c>
+      <c r="Z51">
+        <v>4.48</v>
+      </c>
       <c r="AC51" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5251,22 +6151,25 @@
       <c r="AG51">
         <v>3.165524959564209</v>
       </c>
-      <c r="AH51" t="s">
-        <v>207</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300897</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.12</v>
@@ -5284,7 +6187,7 @@
         <v>43024.91</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5325,8 +6228,23 @@
       <c r="W52">
         <v>0.63</v>
       </c>
+      <c r="X52">
+        <v>-4.73</v>
+      </c>
+      <c r="Y52">
+        <v>33.58</v>
+      </c>
+      <c r="Z52">
+        <v>1.76</v>
+      </c>
       <c r="AC52" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5334,22 +6252,25 @@
       <c r="AG52">
         <v>2.883848190307617</v>
       </c>
-      <c r="AH52" t="s">
-        <v>207</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300902</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>0.13</v>
@@ -5367,7 +6288,7 @@
         <v>57536.6</v>
       </c>
       <c r="J53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K53">
         <v>6</v>
@@ -5408,8 +6329,23 @@
       <c r="W53">
         <v>-0.25</v>
       </c>
+      <c r="X53">
+        <v>-1.48</v>
+      </c>
+      <c r="Y53">
+        <v>32.44</v>
+      </c>
+      <c r="Z53">
+        <v>4.17</v>
+      </c>
       <c r="AC53" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5417,22 +6353,25 @@
       <c r="AG53">
         <v>2.116136312484741</v>
       </c>
-      <c r="AH53" t="s">
-        <v>207</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300907</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-4.43</v>
@@ -5450,7 +6389,7 @@
         <v>29960.33</v>
       </c>
       <c r="J54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5491,8 +6430,23 @@
       <c r="W54">
         <v>0.36</v>
       </c>
+      <c r="X54">
+        <v>-6.9</v>
+      </c>
+      <c r="Y54">
+        <v>40.18</v>
+      </c>
+      <c r="Z54">
+        <v>-1.95</v>
+      </c>
       <c r="AC54" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5500,22 +6454,25 @@
       <c r="AG54">
         <v>2.949060440063477</v>
       </c>
-      <c r="AH54" t="s">
-        <v>207</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300913</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-3.6</v>
@@ -5533,7 +6490,7 @@
         <v>113704.45</v>
       </c>
       <c r="J55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5574,8 +6531,23 @@
       <c r="W55">
         <v>-0.39</v>
       </c>
+      <c r="X55">
+        <v>-0.23</v>
+      </c>
+      <c r="Y55">
+        <v>59.3</v>
+      </c>
+      <c r="Z55">
+        <v>2.86</v>
+      </c>
       <c r="AC55" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5583,22 +6555,25 @@
       <c r="AG55">
         <v>4.022139072418213</v>
       </c>
-      <c r="AH55" t="s">
-        <v>207</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300951</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>3.94</v>
@@ -5616,7 +6591,7 @@
         <v>41275.99</v>
       </c>
       <c r="J56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5657,8 +6632,23 @@
       <c r="W56">
         <v>-0.02</v>
       </c>
+      <c r="X56">
+        <v>-2.46</v>
+      </c>
+      <c r="Y56">
+        <v>43.26</v>
+      </c>
+      <c r="Z56">
+        <v>4.39</v>
+      </c>
       <c r="AC56" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5666,22 +6656,25 @@
       <c r="AG56">
         <v>0.2643180787563324</v>
       </c>
-      <c r="AH56" t="s">
-        <v>207</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300990</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.54</v>
@@ -5699,7 +6692,7 @@
         <v>34504.04</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5740,8 +6733,23 @@
       <c r="W57">
         <v>0.11</v>
       </c>
+      <c r="X57">
+        <v>-10.48</v>
+      </c>
+      <c r="Y57">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="Z57">
+        <v>2.03</v>
+      </c>
       <c r="AC57" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5749,22 +6757,25 @@
       <c r="AG57">
         <v>1.169561624526978</v>
       </c>
-      <c r="AH57" t="s">
-        <v>207</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300995</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.7</v>
@@ -5782,7 +6793,7 @@
         <v>50462.12</v>
       </c>
       <c r="J58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5823,8 +6834,23 @@
       <c r="W58">
         <v>-1.28</v>
       </c>
+      <c r="X58">
+        <v>-3.64</v>
+      </c>
+      <c r="Y58">
+        <v>65.8</v>
+      </c>
+      <c r="Z58">
+        <v>4.41</v>
+      </c>
       <c r="AC58" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5832,22 +6858,25 @@
       <c r="AG58">
         <v>-1.02106511592865</v>
       </c>
-      <c r="AH58" t="s">
-        <v>207</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301007</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>3.56</v>
@@ -5865,7 +6894,7 @@
         <v>63303.31</v>
       </c>
       <c r="J59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -5906,8 +6935,23 @@
       <c r="W59">
         <v>0.09</v>
       </c>
+      <c r="X59">
+        <v>-2.59</v>
+      </c>
+      <c r="Y59">
+        <v>48.02</v>
+      </c>
+      <c r="Z59">
+        <v>0.61</v>
+      </c>
       <c r="AC59" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5915,22 +6959,25 @@
       <c r="AG59">
         <v>-0.400232344865799</v>
       </c>
-      <c r="AH59" t="s">
-        <v>207</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301018</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>2.45</v>
@@ -5948,7 +6995,7 @@
         <v>122732.22</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -5989,8 +7036,23 @@
       <c r="W60">
         <v>0.29</v>
       </c>
+      <c r="X60">
+        <v>-7.88</v>
+      </c>
+      <c r="Y60">
+        <v>69.38</v>
+      </c>
+      <c r="Z60">
+        <v>-0.57</v>
+      </c>
       <c r="AC60" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5998,22 +7060,25 @@
       <c r="AG60">
         <v>16.07879447937012</v>
       </c>
-      <c r="AH60" t="s">
-        <v>207</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301069</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>2.11</v>
@@ -6031,7 +7096,7 @@
         <v>83384.81</v>
       </c>
       <c r="J61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K61">
         <v>11</v>
@@ -6072,8 +7137,23 @@
       <c r="W61">
         <v>-0.05</v>
       </c>
+      <c r="X61">
+        <v>-4.61</v>
+      </c>
+      <c r="Y61">
+        <v>24.5</v>
+      </c>
+      <c r="Z61">
+        <v>-0.85</v>
+      </c>
       <c r="AC61" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6081,22 +7161,25 @@
       <c r="AG61">
         <v>0.7489365339279175</v>
       </c>
-      <c r="AH61" t="s">
-        <v>207</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301076</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-3.95</v>
@@ -6114,7 +7197,7 @@
         <v>121438.75</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K62">
         <v>11</v>
@@ -6155,8 +7238,23 @@
       <c r="W62">
         <v>-0.77</v>
       </c>
+      <c r="X62">
+        <v>-3.14</v>
+      </c>
+      <c r="Y62">
+        <v>56.5</v>
+      </c>
+      <c r="Z62">
+        <v>1.15</v>
+      </c>
       <c r="AC62" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6164,22 +7262,25 @@
       <c r="AG62">
         <v>2.335423231124878</v>
       </c>
-      <c r="AH62" t="s">
-        <v>207</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301086</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>6.27</v>
@@ -6197,7 +7298,7 @@
         <v>37635.22</v>
       </c>
       <c r="J63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6238,8 +7339,23 @@
       <c r="W63">
         <v>0.59</v>
       </c>
+      <c r="X63">
+        <v>-7.8</v>
+      </c>
+      <c r="Y63">
+        <v>71.72</v>
+      </c>
+      <c r="Z63">
+        <v>-1.62</v>
+      </c>
       <c r="AC63" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6247,22 +7363,25 @@
       <c r="AG63">
         <v>2.811765432357788</v>
       </c>
-      <c r="AH63" t="s">
-        <v>207</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301095</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-0.07000000000000001</v>
@@ -6280,7 +7399,7 @@
         <v>118055.51</v>
       </c>
       <c r="J64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K64">
         <v>16</v>
@@ -6321,8 +7440,23 @@
       <c r="W64">
         <v>-0.73</v>
       </c>
+      <c r="X64">
+        <v>-3.03</v>
+      </c>
+      <c r="Y64">
+        <v>91.56</v>
+      </c>
+      <c r="Z64">
+        <v>2.92</v>
+      </c>
       <c r="AC64" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6330,22 +7464,25 @@
       <c r="AG64">
         <v>-0.6541935801506042</v>
       </c>
-      <c r="AH64" t="s">
-        <v>207</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301120</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-3.04</v>
@@ -6363,7 +7500,7 @@
         <v>58978.58</v>
       </c>
       <c r="J65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -6404,8 +7541,23 @@
       <c r="W65">
         <v>-1.63</v>
       </c>
+      <c r="X65">
+        <v>-3.14</v>
+      </c>
+      <c r="Y65">
+        <v>16.43</v>
+      </c>
+      <c r="Z65">
+        <v>1.11</v>
+      </c>
       <c r="AC65" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6413,22 +7565,25 @@
       <c r="AG65">
         <v>3.534034252166748</v>
       </c>
-      <c r="AH65" t="s">
-        <v>207</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301123</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-5.11</v>
@@ -6446,7 +7601,7 @@
         <v>85637.63</v>
       </c>
       <c r="J66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K66">
         <v>12</v>
@@ -6487,8 +7642,23 @@
       <c r="W66">
         <v>-0.21</v>
       </c>
+      <c r="X66">
+        <v>-6.96</v>
+      </c>
+      <c r="Y66">
+        <v>46.94</v>
+      </c>
+      <c r="Z66">
+        <v>1.12</v>
+      </c>
       <c r="AC66" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6496,22 +7666,25 @@
       <c r="AG66">
         <v>2.281232357025146</v>
       </c>
-      <c r="AH66" t="s">
-        <v>207</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301128</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-1.01</v>
@@ -6529,7 +7702,7 @@
         <v>102833.39</v>
       </c>
       <c r="J67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K67">
         <v>6</v>
@@ -6570,8 +7743,23 @@
       <c r="W67">
         <v>-0.02</v>
       </c>
+      <c r="X67">
+        <v>-3.81</v>
+      </c>
+      <c r="Y67">
+        <v>105.55</v>
+      </c>
+      <c r="Z67">
+        <v>8.83</v>
+      </c>
       <c r="AC67" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6579,22 +7767,25 @@
       <c r="AG67">
         <v>5.555232048034668</v>
       </c>
-      <c r="AH67" t="s">
-        <v>207</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301151</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.51</v>
@@ -6612,7 +7803,7 @@
         <v>34979.31</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6653,8 +7844,23 @@
       <c r="W68">
         <v>-2.1</v>
       </c>
+      <c r="X68">
+        <v>-3.1</v>
+      </c>
+      <c r="Y68">
+        <v>25.55</v>
+      </c>
+      <c r="Z68">
+        <v>1.19</v>
+      </c>
       <c r="AC68" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6662,22 +7868,25 @@
       <c r="AG68">
         <v>33.0854606628418</v>
       </c>
-      <c r="AH68" t="s">
-        <v>207</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301161</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-0.98</v>
@@ -6695,7 +7904,7 @@
         <v>35046.98</v>
       </c>
       <c r="J69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K69">
         <v>13</v>
@@ -6736,8 +7945,23 @@
       <c r="W69">
         <v>-1.14</v>
       </c>
+      <c r="X69">
+        <v>-1.25</v>
+      </c>
+      <c r="Y69">
+        <v>45.88</v>
+      </c>
+      <c r="Z69">
+        <v>0.99</v>
+      </c>
       <c r="AC69" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6745,22 +7969,25 @@
       <c r="AG69">
         <v>1.53979754447937</v>
       </c>
-      <c r="AH69" t="s">
-        <v>207</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301165</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-0.26</v>
@@ -6778,7 +8005,7 @@
         <v>130024.79</v>
       </c>
       <c r="J70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K70">
         <v>7</v>
@@ -6819,8 +8046,23 @@
       <c r="W70">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X70">
+        <v>-2.78</v>
+      </c>
+      <c r="Y70">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z70">
+        <v>0.85</v>
+      </c>
       <c r="AC70" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6828,22 +8070,25 @@
       <c r="AG70">
         <v>5.570419788360596</v>
       </c>
-      <c r="AH70" t="s">
-        <v>207</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301183</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.94</v>
@@ -6861,7 +8106,7 @@
         <v>83382.49000000001</v>
       </c>
       <c r="J71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6902,8 +8147,23 @@
       <c r="W71">
         <v>-1.35</v>
       </c>
+      <c r="X71">
+        <v>-4.77</v>
+      </c>
+      <c r="Y71">
+        <v>79.25</v>
+      </c>
+      <c r="Z71">
+        <v>-0.43</v>
+      </c>
       <c r="AC71" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6911,22 +8171,25 @@
       <c r="AG71">
         <v>4.264029979705811</v>
       </c>
-      <c r="AH71" t="s">
-        <v>207</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301205</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-1.79</v>
@@ -6944,7 +8207,7 @@
         <v>96908.94</v>
       </c>
       <c r="J72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6985,8 +8248,23 @@
       <c r="W72">
         <v>0.12</v>
       </c>
+      <c r="X72">
+        <v>-2.67</v>
+      </c>
+      <c r="Y72">
+        <v>111</v>
+      </c>
+      <c r="Z72">
+        <v>0.92</v>
+      </c>
       <c r="AC72" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6994,22 +8272,25 @@
       <c r="AG72">
         <v>-7.515793800354004</v>
       </c>
-      <c r="AH72" t="s">
-        <v>207</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301217</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>0.99</v>
@@ -7027,7 +8308,7 @@
         <v>174395.1</v>
       </c>
       <c r="J73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K73">
         <v>33</v>
@@ -7068,8 +8349,23 @@
       <c r="W73">
         <v>0.09</v>
       </c>
+      <c r="X73">
+        <v>-6.46</v>
+      </c>
+      <c r="Y73">
+        <v>33.42</v>
+      </c>
+      <c r="Z73">
+        <v>2.52</v>
+      </c>
       <c r="AC73" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7077,22 +8373,25 @@
       <c r="AG73">
         <v>3.217866659164429</v>
       </c>
-      <c r="AH73" t="s">
-        <v>207</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301219</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>6.11</v>
@@ -7110,7 +8409,7 @@
         <v>101464.71</v>
       </c>
       <c r="J74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7151,8 +8450,23 @@
       <c r="W74">
         <v>0.13</v>
       </c>
+      <c r="X74">
+        <v>0.48</v>
+      </c>
+      <c r="Y74">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="Z74">
+        <v>5.02</v>
+      </c>
       <c r="AC74" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7160,22 +8474,25 @@
       <c r="AG74">
         <v>0.7523887157440186</v>
       </c>
-      <c r="AH74" t="s">
-        <v>207</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301226</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-5.6</v>
@@ -7193,7 +8510,7 @@
         <v>34958.76</v>
       </c>
       <c r="J75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7234,8 +8551,23 @@
       <c r="W75">
         <v>0.01</v>
       </c>
+      <c r="X75">
+        <v>-5.46</v>
+      </c>
+      <c r="Y75">
+        <v>38.99</v>
+      </c>
+      <c r="Z75">
+        <v>-0.23</v>
+      </c>
       <c r="AC75" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7243,22 +8575,25 @@
       <c r="AG75">
         <v>0.5871849060058594</v>
       </c>
-      <c r="AH75" t="s">
-        <v>207</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301312</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>2.11</v>
@@ -7276,7 +8611,7 @@
         <v>31745.57</v>
       </c>
       <c r="J76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K76">
         <v>8</v>
@@ -7317,8 +8652,23 @@
       <c r="W76">
         <v>0.39</v>
       </c>
+      <c r="X76">
+        <v>-1.53</v>
+      </c>
+      <c r="Y76">
+        <v>51.5</v>
+      </c>
+      <c r="Z76">
+        <v>3.52</v>
+      </c>
       <c r="AC76" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7326,22 +8676,25 @@
       <c r="AG76">
         <v>0.8575232028961182</v>
       </c>
-      <c r="AH76" t="s">
-        <v>207</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301323</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.15</v>
@@ -7359,7 +8712,7 @@
         <v>26660.7</v>
       </c>
       <c r="J77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K77">
         <v>7</v>
@@ -7400,8 +8753,23 @@
       <c r="W77">
         <v>-0.27</v>
       </c>
+      <c r="X77">
+        <v>-3.36</v>
+      </c>
+      <c r="Y77">
+        <v>60.5</v>
+      </c>
+      <c r="Z77">
+        <v>1.22</v>
+      </c>
       <c r="AC77" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7409,22 +8777,25 @@
       <c r="AG77">
         <v>-2.672484159469604</v>
       </c>
-      <c r="AH77" t="s">
-        <v>207</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301357</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-1.45</v>
@@ -7442,7 +8813,7 @@
         <v>133275.11</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K78">
         <v>17</v>
@@ -7483,8 +8854,23 @@
       <c r="W78">
         <v>-1.55</v>
       </c>
+      <c r="X78">
+        <v>-3.63</v>
+      </c>
+      <c r="Y78">
+        <v>175</v>
+      </c>
+      <c r="Z78">
+        <v>2.64</v>
+      </c>
       <c r="AC78" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7492,22 +8878,25 @@
       <c r="AG78">
         <v>2.576430320739746</v>
       </c>
-      <c r="AH78" t="s">
-        <v>207</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301392</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>7.6</v>
@@ -7525,7 +8914,7 @@
         <v>57133.8</v>
       </c>
       <c r="J79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7566,8 +8955,23 @@
       <c r="W79">
         <v>0.88</v>
       </c>
+      <c r="X79">
+        <v>-2.84</v>
+      </c>
+      <c r="Y79">
+        <v>185.56</v>
+      </c>
+      <c r="Z79">
+        <v>3.75</v>
+      </c>
       <c r="AC79" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7575,22 +8979,25 @@
       <c r="AG79">
         <v>0.5622431039810181</v>
       </c>
-      <c r="AH79" t="s">
-        <v>207</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301397</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-2.7</v>
@@ -7608,7 +9015,7 @@
         <v>58146.09</v>
       </c>
       <c r="J80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K80">
         <v>10</v>
@@ -7649,8 +9056,23 @@
       <c r="W80">
         <v>-2.09</v>
       </c>
+      <c r="X80">
+        <v>-4.6</v>
+      </c>
+      <c r="Y80">
+        <v>45.8</v>
+      </c>
+      <c r="Z80">
+        <v>1.57</v>
+      </c>
       <c r="AC80" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7658,22 +9080,25 @@
       <c r="AG80">
         <v>8.712519645690918</v>
       </c>
-      <c r="AH80" t="s">
-        <v>207</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301398</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>1.54</v>
@@ -7691,7 +9116,7 @@
         <v>54320.68</v>
       </c>
       <c r="J81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -7732,8 +9157,23 @@
       <c r="W81">
         <v>-0.33</v>
       </c>
+      <c r="X81">
+        <v>-8.43</v>
+      </c>
+      <c r="Y81">
+        <v>54.7</v>
+      </c>
+      <c r="Z81">
+        <v>-0.98</v>
+      </c>
       <c r="AC81" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7741,22 +9181,25 @@
       <c r="AG81">
         <v>4.013584613800049</v>
       </c>
-      <c r="AH81" t="s">
-        <v>207</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301421</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>5.38</v>
@@ -7774,7 +9217,7 @@
         <v>77611.07000000001</v>
       </c>
       <c r="J82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7815,8 +9258,23 @@
       <c r="W82">
         <v>0.98</v>
       </c>
+      <c r="X82">
+        <v>-5.42</v>
+      </c>
+      <c r="Y82">
+        <v>88.5</v>
+      </c>
+      <c r="Z82">
+        <v>0.72</v>
+      </c>
       <c r="AC82" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7824,22 +9282,25 @@
       <c r="AG82">
         <v>11.27770233154297</v>
       </c>
-      <c r="AH82" t="s">
-        <v>207</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301489</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-3.38</v>
@@ -7857,7 +9318,7 @@
         <v>134776.58</v>
       </c>
       <c r="J83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K83">
         <v>15</v>
@@ -7898,8 +9359,23 @@
       <c r="W83">
         <v>-0.41</v>
       </c>
+      <c r="X83">
+        <v>-3.85</v>
+      </c>
+      <c r="Y83">
+        <v>176.99</v>
+      </c>
+      <c r="Z83">
+        <v>0.84</v>
+      </c>
       <c r="AC83" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7907,22 +9383,25 @@
       <c r="AG83">
         <v>3.946799516677856</v>
       </c>
-      <c r="AH83" t="s">
-        <v>207</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301525</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-5.86</v>
@@ -7940,7 +9419,7 @@
         <v>43423.07</v>
       </c>
       <c r="J84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7981,8 +9460,23 @@
       <c r="W84">
         <v>-0.5</v>
       </c>
+      <c r="X84">
+        <v>-6.23</v>
+      </c>
+      <c r="Y84">
+        <v>100.59</v>
+      </c>
+      <c r="Z84">
+        <v>0.29</v>
+      </c>
       <c r="AC84" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7990,22 +9484,25 @@
       <c r="AG84">
         <v>4.001505374908447</v>
       </c>
-      <c r="AH84" t="s">
-        <v>207</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301526</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-2.28</v>
@@ -8023,7 +9520,7 @@
         <v>101184.04</v>
       </c>
       <c r="J85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -8064,8 +9561,23 @@
       <c r="W85">
         <v>-0.44</v>
       </c>
+      <c r="X85">
+        <v>-2.96</v>
+      </c>
+      <c r="Y85">
+        <v>6.45</v>
+      </c>
+      <c r="Z85">
+        <v>0.47</v>
+      </c>
       <c r="AC85" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8073,22 +9585,25 @@
       <c r="AG85">
         <v>-3.687300205230713</v>
       </c>
-      <c r="AH85" t="s">
-        <v>207</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301626</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>9.15</v>
@@ -8106,7 +9621,7 @@
         <v>69240.34</v>
       </c>
       <c r="J86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K86">
         <v>4</v>
@@ -8147,8 +9662,23 @@
       <c r="W86">
         <v>0.9</v>
       </c>
+      <c r="X86">
+        <v>1.31</v>
+      </c>
+      <c r="Y86">
+        <v>173.9</v>
+      </c>
+      <c r="Z86">
+        <v>1.33</v>
+      </c>
       <c r="AC86" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8156,22 +9686,25 @@
       <c r="AG86">
         <v>-0.241734117269516</v>
       </c>
-      <c r="AH86" t="s">
-        <v>207</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688035</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>2.87</v>
@@ -8189,7 +9722,7 @@
         <v>75543.2</v>
       </c>
       <c r="J87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K87">
         <v>3</v>
@@ -8230,8 +9763,23 @@
       <c r="W87">
         <v>0.02</v>
       </c>
+      <c r="X87">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="Y87">
+        <v>63.62</v>
+      </c>
+      <c r="Z87">
+        <v>1.96</v>
+      </c>
       <c r="AC87" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8239,22 +9787,25 @@
       <c r="AG87">
         <v>4.826793670654297</v>
       </c>
-      <c r="AH87" t="s">
-        <v>207</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688098</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-5.06</v>
@@ -8272,7 +9823,7 @@
         <v>123579.19</v>
       </c>
       <c r="J88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -8313,8 +9864,23 @@
       <c r="W88">
         <v>-2.09</v>
       </c>
+      <c r="X88">
+        <v>-11.86</v>
+      </c>
+      <c r="Y88">
+        <v>14.93</v>
+      </c>
+      <c r="Z88">
+        <v>2.12</v>
+      </c>
       <c r="AC88" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8322,22 +9888,25 @@
       <c r="AG88">
         <v>6.387561798095703</v>
       </c>
-      <c r="AH88" t="s">
-        <v>207</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688108</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-6.51</v>
@@ -8355,7 +9924,7 @@
         <v>256220.88</v>
       </c>
       <c r="J89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K89">
         <v>8</v>
@@ -8396,8 +9965,23 @@
       <c r="W89">
         <v>-1.77</v>
       </c>
+      <c r="X89">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="Y89">
+        <v>37.95</v>
+      </c>
+      <c r="Z89">
+        <v>0.42</v>
+      </c>
       <c r="AC89" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8405,22 +9989,25 @@
       <c r="AG89">
         <v>3.418859958648682</v>
       </c>
-      <c r="AH89" t="s">
-        <v>207</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688110</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-3.11</v>
@@ -8438,7 +10025,7 @@
         <v>344237.26</v>
       </c>
       <c r="J90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K90">
         <v>17</v>
@@ -8479,8 +10066,23 @@
       <c r="W90">
         <v>-0.88</v>
       </c>
+      <c r="X90">
+        <v>-12.37</v>
+      </c>
+      <c r="Y90">
+        <v>101.38</v>
+      </c>
+      <c r="Z90">
+        <v>2.48</v>
+      </c>
       <c r="AC90" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8488,22 +10090,25 @@
       <c r="AG90">
         <v>1.007161498069763</v>
       </c>
-      <c r="AH90" t="s">
-        <v>207</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688146</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>2.25</v>
@@ -8521,7 +10126,7 @@
         <v>48762.17</v>
       </c>
       <c r="J91" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K91">
         <v>6</v>
@@ -8562,8 +10167,23 @@
       <c r="W91">
         <v>-1.09</v>
       </c>
+      <c r="X91">
+        <v>-1.56</v>
+      </c>
+      <c r="Y91">
+        <v>40.58</v>
+      </c>
+      <c r="Z91">
+        <v>0.27</v>
+      </c>
       <c r="AC91" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8571,22 +10191,25 @@
       <c r="AG91">
         <v>1.352450370788574</v>
       </c>
-      <c r="AH91" t="s">
-        <v>207</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688147</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>1.34</v>
@@ -8604,7 +10227,7 @@
         <v>32084.76</v>
       </c>
       <c r="J92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -8645,8 +10268,23 @@
       <c r="W92">
         <v>0.47</v>
       </c>
+      <c r="X92">
+        <v>-0.87</v>
+      </c>
+      <c r="Y92">
+        <v>38.77</v>
+      </c>
+      <c r="Z92">
+        <v>2.43</v>
+      </c>
       <c r="AC92" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8654,22 +10292,25 @@
       <c r="AG92">
         <v>9.630824089050293</v>
       </c>
-      <c r="AH92" t="s">
-        <v>207</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688167</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>4.23</v>
@@ -8687,7 +10328,7 @@
         <v>122153.89</v>
       </c>
       <c r="J93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K93">
         <v>11</v>
@@ -8728,8 +10369,23 @@
       <c r="W93">
         <v>-0.31</v>
       </c>
+      <c r="X93">
+        <v>-1.58</v>
+      </c>
+      <c r="Y93">
+        <v>130</v>
+      </c>
+      <c r="Z93">
+        <v>4.84</v>
+      </c>
       <c r="AC93" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8737,22 +10393,25 @@
       <c r="AG93">
         <v>-0.348827064037323</v>
       </c>
-      <c r="AH93" t="s">
-        <v>207</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688195</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-0.44</v>
@@ -8770,7 +10429,7 @@
         <v>113173.54</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K94">
         <v>3</v>
@@ -8811,8 +10470,23 @@
       <c r="W94">
         <v>-0.08</v>
       </c>
+      <c r="X94">
+        <v>-8.15</v>
+      </c>
+      <c r="Y94">
+        <v>67.73</v>
+      </c>
+      <c r="Z94">
+        <v>0.89</v>
+      </c>
       <c r="AC94" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -8820,22 +10494,25 @@
       <c r="AG94">
         <v>8.651045799255371</v>
       </c>
-      <c r="AH94" t="s">
-        <v>207</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688199</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>1.48</v>
@@ -8853,7 +10530,7 @@
         <v>28781.95</v>
       </c>
       <c r="J95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -8894,8 +10571,23 @@
       <c r="W95">
         <v>0.73</v>
       </c>
+      <c r="X95">
+        <v>-3.59</v>
+      </c>
+      <c r="Y95">
+        <v>29.5</v>
+      </c>
+      <c r="Z95">
+        <v>-0.14</v>
+      </c>
       <c r="AC95" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8903,22 +10595,25 @@
       <c r="AG95">
         <v>-1.805906295776367</v>
       </c>
-      <c r="AH95" t="s">
-        <v>207</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688210</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>0.78</v>
@@ -8936,7 +10631,7 @@
         <v>37176.91</v>
       </c>
       <c r="J96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -8977,8 +10672,23 @@
       <c r="W96">
         <v>-0.18</v>
       </c>
+      <c r="X96">
+        <v>-4.73</v>
+      </c>
+      <c r="Y96">
+        <v>42.2</v>
+      </c>
+      <c r="Z96">
+        <v>-0.54</v>
+      </c>
       <c r="AC96" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8986,22 +10696,25 @@
       <c r="AG96">
         <v>3.741179704666138</v>
       </c>
-      <c r="AH96" t="s">
-        <v>207</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688270</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-3.68</v>
@@ -9019,7 +10732,7 @@
         <v>103227.3</v>
       </c>
       <c r="J97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K97">
         <v>6</v>
@@ -9060,8 +10773,23 @@
       <c r="W97">
         <v>-0.37</v>
       </c>
+      <c r="X97">
+        <v>-4.95</v>
+      </c>
+      <c r="Y97">
+        <v>70.77</v>
+      </c>
+      <c r="Z97">
+        <v>0.77</v>
+      </c>
       <c r="AC97" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9069,22 +10797,25 @@
       <c r="AG97">
         <v>0.3297922015190125</v>
       </c>
-      <c r="AH97" t="s">
-        <v>207</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688379</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>-0.59</v>
@@ -9102,7 +10833,7 @@
         <v>31445.52</v>
       </c>
       <c r="J98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K98">
         <v>9</v>
@@ -9143,8 +10874,23 @@
       <c r="W98">
         <v>-0.16</v>
       </c>
+      <c r="X98">
+        <v>-10.68</v>
+      </c>
+      <c r="Y98">
+        <v>72.3</v>
+      </c>
+      <c r="Z98">
+        <v>9.41</v>
+      </c>
       <c r="AC98" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9152,22 +10898,25 @@
       <c r="AG98">
         <v>4.023655414581299</v>
       </c>
-      <c r="AH98" t="s">
-        <v>207</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688381</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-3.29</v>
@@ -9185,7 +10934,7 @@
         <v>81916.17999999999</v>
       </c>
       <c r="J99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -9226,8 +10975,23 @@
       <c r="W99">
         <v>-1.08</v>
       </c>
+      <c r="X99">
+        <v>-3.55</v>
+      </c>
+      <c r="Y99">
+        <v>29.25</v>
+      </c>
+      <c r="Z99">
+        <v>1.63</v>
+      </c>
       <c r="AC99" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9235,22 +10999,25 @@
       <c r="AG99">
         <v>2.167965650558472</v>
       </c>
-      <c r="AH99" t="s">
-        <v>207</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688401</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>0.45</v>
@@ -9268,7 +11035,7 @@
         <v>33685.27</v>
       </c>
       <c r="J100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -9309,8 +11076,23 @@
       <c r="W100">
         <v>-0.44</v>
       </c>
+      <c r="X100">
+        <v>-4.36</v>
+      </c>
+      <c r="Y100">
+        <v>44.54</v>
+      </c>
+      <c r="Z100">
+        <v>0.2</v>
+      </c>
       <c r="AC100" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9318,22 +11100,25 @@
       <c r="AG100">
         <v>6.886950969696045</v>
       </c>
-      <c r="AH100" t="s">
-        <v>207</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688448</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>-5.62</v>
@@ -9351,7 +11136,7 @@
         <v>28468.47</v>
       </c>
       <c r="J101" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9392,8 +11177,23 @@
       <c r="W101">
         <v>-0.92</v>
       </c>
+      <c r="X101">
+        <v>-6.05</v>
+      </c>
+      <c r="Y101">
+        <v>63</v>
+      </c>
+      <c r="Z101">
+        <v>2.46</v>
+      </c>
       <c r="AC101" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9401,22 +11201,25 @@
       <c r="AG101">
         <v>-0.09904348105192184</v>
       </c>
-      <c r="AH101" t="s">
-        <v>207</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688499</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>6.23</v>
@@ -9434,7 +11237,7 @@
         <v>70167.33</v>
       </c>
       <c r="J102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K102">
         <v>47</v>
@@ -9475,8 +11278,23 @@
       <c r="W102">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X102">
+        <v>-7.44</v>
+      </c>
+      <c r="Y102">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="Z102">
+        <v>-1.07</v>
+      </c>
       <c r="AC102" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9484,22 +11302,25 @@
       <c r="AG102">
         <v>5.5831298828125</v>
       </c>
-      <c r="AH102" t="s">
-        <v>207</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688502</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>9.6</v>
@@ -9517,7 +11338,7 @@
         <v>65999.34</v>
       </c>
       <c r="J103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K103">
         <v>18</v>
@@ -9558,8 +11379,23 @@
       <c r="W103">
         <v>1.14</v>
       </c>
+      <c r="X103">
+        <v>-1.98</v>
+      </c>
+      <c r="Y103">
+        <v>423.7</v>
+      </c>
+      <c r="Z103">
+        <v>2.47</v>
+      </c>
       <c r="AC103" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9567,22 +11403,25 @@
       <c r="AG103">
         <v>14.33911895751953</v>
       </c>
-      <c r="AH103" t="s">
-        <v>207</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688519</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>-1.47</v>
@@ -9600,7 +11439,7 @@
         <v>82195.84</v>
       </c>
       <c r="J104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K104">
         <v>3</v>
@@ -9641,8 +11480,23 @@
       <c r="W104">
         <v>0.1</v>
       </c>
+      <c r="X104">
+        <v>2.85</v>
+      </c>
+      <c r="Y104">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="Z104">
+        <v>8.26</v>
+      </c>
       <c r="AC104" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9650,22 +11504,25 @@
       <c r="AG104">
         <v>5.095455646514893</v>
       </c>
-      <c r="AH104" t="s">
-        <v>207</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688556</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>-1.61</v>
@@ -9683,7 +11540,7 @@
         <v>76791.69</v>
       </c>
       <c r="J105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K105">
         <v>18</v>
@@ -9724,8 +11581,23 @@
       <c r="W105">
         <v>0.33</v>
       </c>
+      <c r="X105">
+        <v>-4.21</v>
+      </c>
+      <c r="Y105">
+        <v>12.99</v>
+      </c>
+      <c r="Z105">
+        <v>1.33</v>
+      </c>
       <c r="AC105" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9733,22 +11605,25 @@
       <c r="AG105">
         <v>5.649052143096924</v>
       </c>
-      <c r="AH105" t="s">
-        <v>207</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688582</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>3.9</v>
@@ -9766,7 +11641,7 @@
         <v>126350.89</v>
       </c>
       <c r="J106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K106">
         <v>3</v>
@@ -9807,8 +11682,23 @@
       <c r="W106">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X106">
+        <v>-4.35</v>
+      </c>
+      <c r="Y106">
+        <v>83.02</v>
+      </c>
+      <c r="Z106">
+        <v>0.31</v>
+      </c>
       <c r="AC106" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9816,22 +11706,25 @@
       <c r="AG106">
         <v>3.364990949630737</v>
       </c>
-      <c r="AH106" t="s">
-        <v>207</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688584</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>12.73</v>
@@ -9849,7 +11742,7 @@
         <v>74224.60000000001</v>
       </c>
       <c r="J107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -9890,8 +11783,23 @@
       <c r="W107">
         <v>0.67</v>
       </c>
+      <c r="X107">
+        <v>-3.39</v>
+      </c>
+      <c r="Y107">
+        <v>29.65</v>
+      </c>
+      <c r="Z107">
+        <v>4.33</v>
+      </c>
       <c r="AC107" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9899,22 +11807,25 @@
       <c r="AG107">
         <v>-0.1789126396179199</v>
       </c>
-      <c r="AH107" t="s">
-        <v>207</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688603</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>-1.18</v>
@@ -9932,7 +11843,7 @@
         <v>47602.81</v>
       </c>
       <c r="J108" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K108">
         <v>6</v>
@@ -9973,8 +11884,23 @@
       <c r="W108">
         <v>-1.27</v>
       </c>
+      <c r="X108">
+        <v>-7.07</v>
+      </c>
+      <c r="Y108">
+        <v>99.88</v>
+      </c>
+      <c r="Z108">
+        <v>7.4</v>
+      </c>
       <c r="AC108" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>1</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -9982,22 +11908,25 @@
       <c r="AG108">
         <v>-2.848961114883423</v>
       </c>
-      <c r="AH108" t="s">
-        <v>207</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688648</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>-8.050000000000001</v>
@@ -10015,7 +11944,7 @@
         <v>40440.38</v>
       </c>
       <c r="J109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -10056,8 +11985,23 @@
       <c r="W109">
         <v>-0.62</v>
       </c>
+      <c r="X109">
+        <v>-9.49</v>
+      </c>
+      <c r="Y109">
+        <v>72.19</v>
+      </c>
+      <c r="Z109">
+        <v>1.96</v>
+      </c>
       <c r="AC109" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10065,22 +12009,25 @@
       <c r="AG109">
         <v>2.69397234916687</v>
       </c>
-      <c r="AH109" t="s">
-        <v>207</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688716</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>3.59</v>
@@ -10098,7 +12045,7 @@
         <v>67921.87</v>
       </c>
       <c r="J110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K110">
         <v>5</v>
@@ -10139,8 +12086,23 @@
       <c r="W110">
         <v>0.62</v>
       </c>
+      <c r="X110">
+        <v>-8.23</v>
+      </c>
+      <c r="Y110">
+        <v>55.73</v>
+      </c>
+      <c r="Z110">
+        <v>-0.04</v>
+      </c>
       <c r="AC110" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10148,22 +12110,25 @@
       <c r="AG110">
         <v>-1.272296667098999</v>
       </c>
-      <c r="AH110" t="s">
-        <v>207</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688767</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>-0.13</v>
@@ -10181,7 +12146,7 @@
         <v>25148.13</v>
       </c>
       <c r="J111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K111">
         <v>4</v>
@@ -10222,8 +12187,23 @@
       <c r="W111">
         <v>-0.19</v>
       </c>
+      <c r="X111">
+        <v>-4.29</v>
+      </c>
+      <c r="Y111">
+        <v>45</v>
+      </c>
+      <c r="Z111">
+        <v>0.13</v>
+      </c>
       <c r="AC111" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10231,8 +12211,11 @@
       <c r="AG111">
         <v>3.782461404800415</v>
       </c>
-      <c r="AH111" t="s">
-        <v>207</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
